--- a/Test/一模/学员答题情况/答题分析/一模试题分析分工 - 3组 - 黄少龙.xlsx
+++ b/Test/一模/学员答题情况/答题分析/一模试题分析分工 - 3组 - 黄少龙.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Felson\PMP\Easypmp\Easypmp\Test\一模\学员答题情况\答题分析\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="725" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="陈颖" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
   <si>
     <t>题号</t>
   </si>
@@ -139,19 +144,25 @@
   </si>
   <si>
     <t>快速跟进：一种进度压缩技术，将正常情况下按顺序进行的活动或阶段改为至少是部分并行开展。</t>
+  </si>
+  <si>
+    <t>6.6.2.5/11.4.2.2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特卡洛分析首先确认每个活动的可能时间概率分布，然后据此算出整个项目的可能工期概率分布；蒙特卡洛技术可以用来可以进行定量分析（11.4.2.2）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6.2.2关键路径法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,345 +196,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -561,253 +262,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,59 +277,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1160,15 +596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -1176,7 +611,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1202,7 +637,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -1211,7 +646,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -1220,7 +655,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>8</v>
       </c>
@@ -1229,7 +664,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -1238,7 +673,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>15</v>
       </c>
@@ -1247,7 +682,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>18</v>
       </c>
@@ -1256,7 +691,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>28</v>
       </c>
@@ -1265,7 +700,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>29</v>
       </c>
@@ -1274,7 +709,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>32</v>
       </c>
@@ -1283,7 +718,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>34</v>
       </c>
@@ -1292,7 +727,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>37</v>
       </c>
@@ -1301,7 +736,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>50</v>
       </c>
@@ -1310,7 +745,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>57</v>
       </c>
@@ -1319,7 +754,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>59</v>
       </c>
@@ -1329,6 +764,7 @@
       <c r="E16" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -1337,21 +773,19 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -1359,7 +793,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -1385,7 +819,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>9</v>
       </c>
@@ -1394,7 +828,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>30</v>
       </c>
@@ -1403,7 +837,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>31</v>
       </c>
@@ -1412,7 +846,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43</v>
       </c>
@@ -1421,7 +855,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44</v>
       </c>
@@ -1430,7 +864,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>48</v>
       </c>
@@ -1439,7 +873,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>78</v>
       </c>
@@ -1448,7 +882,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>82</v>
       </c>
@@ -1457,7 +891,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>94</v>
       </c>
@@ -1466,7 +900,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>100</v>
       </c>
@@ -1475,7 +909,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>101</v>
       </c>
@@ -1484,7 +918,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>104</v>
       </c>
@@ -1493,7 +927,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>107</v>
       </c>
@@ -1502,7 +936,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>109</v>
       </c>
@@ -1511,7 +945,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>113</v>
       </c>
@@ -1520,7 +954,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>114</v>
       </c>
@@ -1529,7 +963,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>119</v>
       </c>
@@ -1538,7 +972,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>140</v>
       </c>
@@ -1547,7 +981,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>141</v>
       </c>
@@ -1556,7 +990,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>142</v>
       </c>
@@ -1565,7 +999,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>146</v>
       </c>
@@ -1574,7 +1008,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>159</v>
       </c>
@@ -1583,7 +1017,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>160</v>
       </c>
@@ -1592,7 +1026,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>166</v>
       </c>
@@ -1601,7 +1035,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>167</v>
       </c>
@@ -1610,7 +1044,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>193</v>
       </c>
@@ -1620,6 +1054,7 @@
       <c r="E28" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -1628,21 +1063,19 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -1650,7 +1083,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1676,7 +1109,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1685,7 +1118,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>14</v>
       </c>
@@ -1694,7 +1127,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>19</v>
       </c>
@@ -1703,7 +1136,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>62</v>
       </c>
@@ -1712,7 +1145,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>73</v>
       </c>
@@ -1721,7 +1154,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>87</v>
       </c>
@@ -1730,7 +1163,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>136</v>
       </c>
@@ -1739,7 +1172,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>143</v>
       </c>
@@ -1748,7 +1181,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>173</v>
       </c>
@@ -1757,7 +1190,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>177</v>
       </c>
@@ -1766,7 +1199,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>194</v>
       </c>
@@ -1776,6 +1209,7 @@
       <c r="E13" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -1784,21 +1218,19 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -1806,7 +1238,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>124</v>
       </c>
@@ -1832,7 +1264,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>129</v>
       </c>
@@ -1841,7 +1273,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>131</v>
       </c>
@@ -1850,7 +1282,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>137</v>
       </c>
@@ -1859,7 +1291,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>139</v>
       </c>
@@ -1868,7 +1300,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>149</v>
       </c>
@@ -1877,7 +1309,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>157</v>
       </c>
@@ -1886,7 +1318,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>179</v>
       </c>
@@ -1895,7 +1327,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>182</v>
       </c>
@@ -1904,7 +1336,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>185</v>
       </c>
@@ -1913,7 +1345,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>188</v>
       </c>
@@ -1922,7 +1354,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>190</v>
       </c>
@@ -1931,7 +1363,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>191</v>
       </c>
@@ -1940,7 +1372,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>198</v>
       </c>
@@ -1950,6 +1382,7 @@
       <c r="E15" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -1958,22 +1391,20 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -1981,7 +1412,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +1429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>61</v>
       </c>
@@ -2007,7 +1438,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>66</v>
       </c>
@@ -2016,7 +1447,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>76</v>
       </c>
@@ -2025,7 +1456,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>83</v>
       </c>
@@ -2034,7 +1465,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>93</v>
       </c>
@@ -2043,7 +1474,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>95</v>
       </c>
@@ -2052,7 +1483,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>106</v>
       </c>
@@ -2061,7 +1492,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>118</v>
       </c>
@@ -2070,7 +1501,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>128</v>
       </c>
@@ -2079,7 +1510,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>132</v>
       </c>
@@ -2088,7 +1519,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>148</v>
       </c>
@@ -2097,7 +1528,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>151</v>
       </c>
@@ -2106,7 +1537,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>153</v>
       </c>
@@ -2115,7 +1546,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>170</v>
       </c>
@@ -2124,7 +1555,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>171</v>
       </c>
@@ -2134,6 +1565,7 @@
       <c r="E16" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -2142,21 +1574,19 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -2164,7 +1594,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>16</v>
       </c>
@@ -2190,7 +1620,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45</v>
       </c>
@@ -2199,7 +1629,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>47</v>
       </c>
@@ -2208,7 +1638,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>49</v>
       </c>
@@ -2217,7 +1647,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>58</v>
       </c>
@@ -2226,7 +1656,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>67</v>
       </c>
@@ -2235,7 +1665,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>70</v>
       </c>
@@ -2244,7 +1674,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>92</v>
       </c>
@@ -2253,7 +1683,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>120</v>
       </c>
@@ -2262,7 +1692,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>133</v>
       </c>
@@ -2271,7 +1701,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>152</v>
       </c>
@@ -2280,7 +1710,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>186</v>
       </c>
@@ -2289,7 +1719,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>189</v>
       </c>
@@ -2299,6 +1729,7 @@
       <c r="E14" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -2307,29 +1738,28 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="85.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="85.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2342,11 +1772,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>12</v>
       </c>
@@ -2356,14 +1786,14 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>17</v>
       </c>
@@ -2376,11 +1806,11 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -2393,11 +1823,11 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>23</v>
       </c>
@@ -2410,11 +1840,11 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>41</v>
       </c>
@@ -2424,10 +1854,14 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:5">
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>74</v>
       </c>
@@ -2440,11 +1874,11 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>79</v>
       </c>
@@ -2457,11 +1891,11 @@
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>88</v>
       </c>
@@ -2474,11 +1908,11 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>90</v>
       </c>
@@ -2491,11 +1925,11 @@
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>108</v>
       </c>
@@ -2508,11 +1942,11 @@
       <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>110</v>
       </c>
@@ -2525,11 +1959,11 @@
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>112</v>
       </c>
@@ -2542,11 +1976,11 @@
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>115</v>
       </c>
@@ -2559,11 +1993,11 @@
       <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>122</v>
       </c>
@@ -2573,14 +2007,14 @@
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>127</v>
       </c>
@@ -2590,14 +2024,14 @@
       <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>155</v>
       </c>
@@ -2607,14 +2041,14 @@
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
+    <row r="18" spans="1:5" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>181</v>
       </c>
@@ -2624,14 +2058,14 @@
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>192</v>
       </c>
@@ -2641,14 +2075,15 @@
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C19">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -2657,21 +2092,20 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -2679,7 +2113,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>77</v>
       </c>
@@ -2705,7 +2139,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>89</v>
       </c>
@@ -2714,7 +2148,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>123</v>
       </c>
@@ -2723,7 +2157,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>125</v>
       </c>
@@ -2732,7 +2166,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>134</v>
       </c>
@@ -2741,7 +2175,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>147</v>
       </c>
@@ -2750,7 +2184,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>25</v>
       </c>
@@ -2759,7 +2193,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>35</v>
       </c>
@@ -2768,7 +2202,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>53</v>
       </c>
@@ -2777,7 +2211,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>55</v>
       </c>
@@ -2786,7 +2220,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>71</v>
       </c>
@@ -2795,7 +2229,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>91</v>
       </c>
@@ -2804,7 +2238,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>103</v>
       </c>
@@ -2813,7 +2247,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>126</v>
       </c>
@@ -2822,7 +2256,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>130</v>
       </c>
@@ -2831,7 +2265,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>161</v>
       </c>
@@ -2840,7 +2274,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>163</v>
       </c>
@@ -2849,7 +2283,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>169</v>
       </c>
@@ -2858,7 +2292,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>184</v>
       </c>
@@ -2867,7 +2301,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>187</v>
       </c>
@@ -2877,6 +2311,7 @@
       <c r="E21" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C19">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -2885,21 +2320,19 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -2907,7 +2340,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>24</v>
       </c>
@@ -2933,7 +2366,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>86</v>
       </c>
@@ -2942,7 +2375,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>145</v>
       </c>
@@ -2951,7 +2384,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>150</v>
       </c>
@@ -2960,7 +2393,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>162</v>
       </c>
@@ -2969,7 +2402,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>174</v>
       </c>
@@ -2978,7 +2411,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>176</v>
       </c>
@@ -2987,7 +2420,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>178</v>
       </c>
@@ -2996,7 +2429,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>196</v>
       </c>
@@ -3005,7 +2438,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>39</v>
       </c>
@@ -3014,7 +2447,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>46</v>
       </c>
@@ -3023,7 +2456,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>116</v>
       </c>
@@ -3032,7 +2465,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>175</v>
       </c>
@@ -3041,7 +2474,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>180</v>
       </c>
@@ -3050,7 +2483,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>200</v>
       </c>
@@ -3060,6 +2493,7 @@
       <c r="E16" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -3068,21 +2502,19 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -3090,7 +2522,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +2539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>7</v>
       </c>
@@ -3116,7 +2548,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -3125,7 +2557,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>13</v>
       </c>
@@ -3134,7 +2566,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>22</v>
       </c>
@@ -3143,7 +2575,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>40</v>
       </c>
@@ -3152,7 +2584,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>42</v>
       </c>
@@ -3161,7 +2593,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>51</v>
       </c>
@@ -3170,7 +2602,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>52</v>
       </c>
@@ -3179,7 +2611,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>60</v>
       </c>
@@ -3188,7 +2620,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>64</v>
       </c>
@@ -3197,7 +2629,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>65</v>
       </c>
@@ -3206,7 +2638,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>68</v>
       </c>
@@ -3215,7 +2647,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>69</v>
       </c>
@@ -3224,7 +2656,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>72</v>
       </c>
@@ -3233,7 +2665,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>75</v>
       </c>
@@ -3242,7 +2674,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>80</v>
       </c>
@@ -3251,7 +2683,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>81</v>
       </c>
@@ -3260,7 +2692,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>85</v>
       </c>
@@ -3270,6 +2702,7 @@
       <c r="E19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -3278,21 +2711,19 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -3300,7 +2731,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3317,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>21</v>
       </c>
@@ -3326,7 +2757,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>26</v>
       </c>
@@ -3335,7 +2766,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>27</v>
       </c>
@@ -3344,7 +2775,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>33</v>
       </c>
@@ -3353,7 +2784,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>36</v>
       </c>
@@ -3362,7 +2793,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>38</v>
       </c>
@@ -3371,7 +2802,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>54</v>
       </c>
@@ -3380,7 +2811,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>56</v>
       </c>
@@ -3389,7 +2820,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>63</v>
       </c>
@@ -3398,7 +2829,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>84</v>
       </c>
@@ -3407,7 +2838,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>96</v>
       </c>
@@ -3416,7 +2847,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>97</v>
       </c>
@@ -3425,7 +2856,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>99</v>
       </c>
@@ -3434,7 +2865,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>117</v>
       </c>
@@ -3443,7 +2874,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>121</v>
       </c>
@@ -3453,6 +2884,7 @@
       <c r="E16" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C15">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -3461,21 +2893,19 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -3483,7 +2913,7 @@
     <col min="5" max="5" width="85.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3500,7 +2930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>98</v>
       </c>
@@ -3509,7 +2939,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>102</v>
       </c>
@@ -3518,7 +2948,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>105</v>
       </c>
@@ -3527,7 +2957,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>111</v>
       </c>
@@ -3536,7 +2966,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>135</v>
       </c>
@@ -3545,7 +2975,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>138</v>
       </c>
@@ -3554,7 +2984,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>144</v>
       </c>
@@ -3563,7 +2993,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>154</v>
       </c>
@@ -3572,7 +3002,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>156</v>
       </c>
@@ -3581,7 +3011,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>158</v>
       </c>
@@ -3590,7 +3020,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>164</v>
       </c>
@@ -3599,7 +3029,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>165</v>
       </c>
@@ -3608,7 +3038,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>168</v>
       </c>
@@ -3617,7 +3047,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>172</v>
       </c>
@@ -3626,7 +3056,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>183</v>
       </c>
@@ -3635,7 +3065,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>195</v>
       </c>
@@ -3644,7 +3074,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>197</v>
       </c>
@@ -3653,7 +3083,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>199</v>
       </c>
@@ -3663,6 +3093,7 @@
       <c r="E19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16">
       <formula1>"启动过程组,规划过程组,执行过程组,监控过程组,收尾过程组,综合"</formula1>
@@ -3671,7 +3102,6 @@
       <formula1>"项目整合管理,项目范围管理,项目时间管理,项目成本管理,项目质量管理,项目人力资源管理,项目沟通管理,项目风险管理,项目采购管理,项目干系人管理,综合"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>